--- a/SoutherWater_AutomationFrameWork/src/test/resources/dataSource/SWTestData.xlsx
+++ b/SoutherWater_AutomationFrameWork/src/test/resources/dataSource/SWTestData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devesh.k\git\SouthernWater\SoutherWater_AutomationFrameWork\src\test\resources\dataSource\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9420" windowHeight="2445" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -18,7 +13,8 @@
     <sheet name="Users" sheetId="3" r:id="rId4"/>
     <sheet name="MoveIn" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:G6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="58">
   <si>
     <t>Password</t>
   </si>
@@ -196,6 +192,12 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>historydd@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -272,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -286,6 +288,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1016,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,6 +1092,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -1094,6 +1114,7 @@
     <hyperlink ref="D3" r:id="rId4"/>
     <hyperlink ref="C4" r:id="rId5"/>
     <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1103,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
